--- a/Docs/projet/Altaïr-Tests de charge.xlsx
+++ b/Docs/projet/Altaïr-Tests de charge.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -100,11 +100,12 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -126,20 +127,35 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -365,7 +381,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -415,10 +431,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0824063116370808"/>
-          <c:y val="0.135762689343609"/>
-          <c:w val="0.768599605522682"/>
-          <c:h val="0.59480467711932"/>
+          <c:x val="0.0823844608171467"/>
+          <c:y val="0.135729471166622"/>
+          <c:w val="0.768567038335763"/>
+          <c:h val="0.594738240765347"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -456,6 +472,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -672,11 +689,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="21179387"/>
-        <c:axId val="86041028"/>
+        <c:axId val="71449969"/>
+        <c:axId val="33862720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21179387"/>
+        <c:axId val="71449969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +737,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -749,12 +766,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86041028"/>
+        <c:crossAx val="33862720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86041028"/>
+        <c:axId val="33862720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +815,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -827,7 +844,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21179387"/>
+        <c:crossAx val="71449969"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -841,6 +858,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -849,6 +867,7 @@
           <c:y val="0.832779697050226"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -881,9 +900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -891,8 +910,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6867000" y="1129680"/>
-        <a:ext cx="8293680" cy="5418720"/>
+        <a:off x="7418520" y="1129680"/>
+        <a:ext cx="9136800" cy="5418360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -918,13 +937,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.16836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,16 +976,19 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="n">
         <v>42661</v>
       </c>
+      <c r="G6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
@@ -976,6 +998,7 @@
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
@@ -985,6 +1008,7 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="G8" s="0"/>
     </row>
     <row r="12" s="8" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
@@ -1557,6 +1581,9 @@
         <v>153.931463556498</v>
       </c>
       <c r="G43" s="17"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="1" t="s">

--- a/Docs/projet/Altaïr-Tests de charge.xlsx
+++ b/Docs/projet/Altaïr-Tests de charge.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="995"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t xml:space="preserve">LOGICIEL  ALTAÏR – EXTRACTION DES DONNEES DE PAYE </t>
   </si>
@@ -28,99 +27,82 @@
     <t xml:space="preserve">TESTS DE CHARGE </t>
   </si>
   <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabrice NICOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAM</t>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Fabrice NICOL</t>
+  </si>
+  <si>
+    <t>Processeur</t>
+  </si>
+  <si>
+    <t>RAM</t>
   </si>
   <si>
     <t xml:space="preserve">Core i7-6700 3.4 Ghz </t>
   </si>
   <si>
-    <t xml:space="preserve">32 Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 organismes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Lignes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Bulletins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durée ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitesse en k lignes / s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auvergne, Rhône-Alpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occitanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bretagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ile-de-France (Paris)</t>
+    <t>32 Go</t>
+  </si>
+  <si>
+    <t>30 organismes</t>
+  </si>
+  <si>
+    <t>N Lignes</t>
+  </si>
+  <si>
+    <t>N Bulletins</t>
+  </si>
+  <si>
+    <t>Durée ms</t>
+  </si>
+  <si>
+    <t>Vitesse en k lignes / s</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>IDF</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Auvergne, Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>Ile-de-France (Paris)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,34 +112,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,149 +134,115 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -376,15 +301,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -393,26 +333,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -422,6 +362,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -431,10 +372,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0823844608171467"/>
-          <c:y val="0.135729471166622"/>
-          <c:w val="0.768567038335763"/>
-          <c:h val="0.594738240765347"/>
+          <c:x val="8.2384460817146704E-2"/>
+          <c:y val="0.13572947116662201"/>
+          <c:w val="0.76856703833576301"/>
+          <c:h val="0.59473824076534698"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -445,7 +386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuille1!$F$12:$F$12</c:f>
+              <c:f>Feuille1!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -455,9 +396,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -478,6 +416,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:trendline>
@@ -490,17 +429,15 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuille1!$C$13:$C$41</c:f>
+              <c:f>Feuille1!$C$13:$C$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>70371</c:v>
                 </c:pt>
@@ -587,16 +524,25 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1177916</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3973558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>302788</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuille1!$F$13:$F$41</c:f>
+              <c:f>Feuille1!$F$13:$F$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>167</c:v>
                 </c:pt>
@@ -683,17 +629,34 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71449969"/>
-        <c:axId val="33862720"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="85107072"/>
+        <c:axId val="85108992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71449969"/>
+        <c:axId val="85107072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,26 +669,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -735,6 +698,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -744,34 +708,36 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33862720"/>
+        <c:crossAx val="85108992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33862720"/>
+        <c:axId val="85108992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,26 +750,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="fr-FR" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -813,6 +779,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -822,29 +789,31 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71449969"/>
+        <c:crossAx val="85107072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -852,7 +821,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -863,8 +832,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.201927250629395"/>
-          <c:y val="0.832779697050226"/>
+          <c:x val="0.20192725062939501"/>
+          <c:y val="0.83277969705022603"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -877,20 +846,26 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -904,14 +879,14 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7418520" y="1129680"/>
-        <a:ext cx="9136800" cy="5418360"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -924,696 +899,1032 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.6071428571429"/>
+    <col min="1" max="1" width="10"/>
+    <col min="2" max="2" width="18.140625"/>
+    <col min="3" max="4" width="12.5703125"/>
+    <col min="5" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="24.5703125"/>
+    <col min="9" max="1025" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="G3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
         <v>42661</v>
       </c>
-      <c r="G6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
+      <c r="G8"/>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="9"/>
-      <c r="C13" s="12" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
+      <c r="C13" s="9">
         <v>70371</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="9">
         <v>3959</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="9">
         <v>419</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="9">
         <v>167</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="n">
+      <c r="G13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="9">
         <v>1559700</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="9">
         <v>72319</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="9">
         <v>8099</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="9">
         <v>192</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9"/>
-      <c r="C15" s="12" t="n">
+      <c r="G14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="9">
         <v>1586655</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="9">
         <v>7563</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="9">
         <v>8096</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="9">
         <v>195</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9"/>
-      <c r="C16" s="12" t="n">
+      <c r="G15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="9">
         <v>77058</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="9">
         <v>3659</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="9">
         <v>505</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="9">
         <v>152</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9"/>
-      <c r="C17" s="12" t="n">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="9">
         <v>499149</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="9">
         <v>14260</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="9">
         <v>4464</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="9">
         <v>111</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9"/>
-      <c r="C18" s="12" t="n">
+      <c r="G17" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="9">
         <v>33648</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="9">
         <v>1598</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="9">
         <v>1313</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="9">
         <v>25</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9"/>
-      <c r="C19" s="12" t="n">
+      <c r="G18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
+      <c r="C19" s="9">
         <v>160899</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="9">
         <v>6146</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="9">
         <v>857</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="9">
         <v>187</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
-      <c r="C20" s="12" t="n">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="9">
         <v>918469</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="9">
         <v>41509</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="9">
         <v>5230</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="9">
         <v>175</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9"/>
-      <c r="C21" s="12" t="n">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="9">
         <v>631066</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="9">
         <v>3201</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="9">
         <v>3703</v>
       </c>
-      <c r="F21" s="12" t="n">
+      <c r="F21" s="9">
         <v>170</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9"/>
-      <c r="C22" s="12" t="n">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="C22" s="9">
         <v>2429744</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="9">
         <v>78032</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="9">
         <v>11527</v>
       </c>
-      <c r="F22" s="12" t="n">
+      <c r="F22" s="9">
         <v>210</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9"/>
-      <c r="C23" s="12" t="n">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
+      <c r="C23" s="9">
         <v>241220</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="9">
         <v>8700</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="9">
         <v>1376</v>
       </c>
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="9">
         <v>175</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9"/>
-      <c r="C24" s="12" t="n">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="9">
         <v>1537047</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="9">
         <v>46073</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="9">
         <v>7389</v>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="9">
         <v>208</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9"/>
-      <c r="C25" s="12" t="n">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="9">
         <v>3810998</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="9">
         <v>129983</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="9">
         <v>14927</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="9">
         <v>255</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9"/>
-      <c r="C26" s="12" t="n">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+      <c r="C26" s="9">
         <v>5096088</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="9">
         <v>546872</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="9">
         <v>30954</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="9">
         <v>164</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9"/>
-      <c r="C27" s="12" t="n">
+      <c r="G26" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="18"/>
+      <c r="C27" s="9">
         <v>818972</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="9">
         <v>36441</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="9">
         <v>4122</v>
       </c>
-      <c r="F27" s="12" t="n">
+      <c r="F27" s="9">
         <v>198</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9"/>
-      <c r="C28" s="12" t="n">
+      <c r="G27" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="9">
         <v>8819849</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="9">
         <v>312208</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="9">
         <v>65308</v>
       </c>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="9">
         <v>135</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9"/>
-      <c r="C29" s="12" t="n">
+      <c r="G28" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
+      <c r="C29" s="9">
         <v>1143732</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="9">
         <v>32107</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="9">
         <v>5751</v>
       </c>
-      <c r="F29" s="12" t="n">
+      <c r="F29" s="9">
         <v>198</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9"/>
-      <c r="C30" s="12" t="n">
+      <c r="G29" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="18"/>
+      <c r="C30" s="9">
         <v>305712</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="9">
         <v>11390</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="9">
         <v>1570</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="9">
         <v>194</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9"/>
-      <c r="C31" s="12" t="n">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
+      <c r="C31" s="9">
         <v>1563634</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="9">
         <v>63970</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="9">
         <v>9667</v>
       </c>
-      <c r="F31" s="12" t="n">
+      <c r="F31" s="9">
         <v>161</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9"/>
-      <c r="C32" s="12" t="n">
+      <c r="G31" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="9">
         <v>460355</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="9">
         <v>14527</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="9">
         <v>2537</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="9">
         <v>181</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9"/>
-      <c r="C33" s="12" t="n">
+      <c r="G32" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
+      <c r="C33" s="9">
         <v>938214</v>
       </c>
-      <c r="D33" s="12" t="n">
+      <c r="D33" s="9">
         <v>36688</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="9">
         <v>7263</v>
       </c>
-      <c r="F33" s="12" t="n">
+      <c r="F33" s="9">
         <v>129</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9"/>
-      <c r="C34" s="12" t="n">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="9">
         <v>10108198</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="9">
         <v>369145</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="9">
         <v>86582</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="9">
         <v>116</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9"/>
-      <c r="C35" s="12" t="n">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
+      <c r="C35" s="9">
         <v>670046</v>
       </c>
-      <c r="D35" s="12" t="n">
+      <c r="D35" s="9">
         <v>30636</v>
       </c>
-      <c r="E35" s="12" t="n">
+      <c r="E35" s="9">
         <v>3753</v>
       </c>
-      <c r="F35" s="12" t="n">
+      <c r="F35" s="9">
         <v>178</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9"/>
-      <c r="C36" s="12" t="n">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="9">
         <v>254798</v>
       </c>
-      <c r="D36" s="12" t="n">
+      <c r="D36" s="9">
         <v>12325</v>
       </c>
-      <c r="E36" s="12" t="n">
+      <c r="E36" s="9">
         <v>1889</v>
       </c>
-      <c r="F36" s="12" t="n">
+      <c r="F36" s="9">
         <v>134</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9"/>
-      <c r="C37" s="12" t="n">
+      <c r="G36" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+      <c r="C37" s="9">
         <v>169162</v>
       </c>
-      <c r="D37" s="12" t="n">
+      <c r="D37" s="9">
         <v>7965</v>
       </c>
-      <c r="E37" s="12" t="n">
+      <c r="E37" s="9">
         <v>925</v>
       </c>
-      <c r="F37" s="12" t="n">
+      <c r="F37" s="9">
         <v>182</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9"/>
-      <c r="C38" s="12" t="n">
+      <c r="G37" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+      <c r="C38" s="9">
         <v>583959</v>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="9">
         <v>23876</v>
       </c>
-      <c r="E38" s="12" t="n">
+      <c r="E38" s="9">
         <v>3925</v>
       </c>
-      <c r="F38" s="12" t="n">
+      <c r="F38" s="9">
         <v>148</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9"/>
-      <c r="C39" s="12" t="n">
+      <c r="G38" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
+      <c r="C39" s="9">
         <v>22871</v>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="9">
         <v>898</v>
       </c>
-      <c r="E39" s="12" t="n">
+      <c r="E39" s="9">
         <v>161</v>
       </c>
-      <c r="F39" s="12" t="n">
+      <c r="F39" s="9">
         <v>142</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9"/>
-      <c r="C40" s="12" t="n">
+      <c r="G39" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+      <c r="C40" s="9">
         <v>94767</v>
       </c>
-      <c r="D40" s="12" t="n">
+      <c r="D40" s="9">
         <v>4806</v>
       </c>
-      <c r="E40" s="12" t="n">
+      <c r="E40" s="9">
         <v>464</v>
       </c>
-      <c r="F40" s="12" t="n">
+      <c r="F40" s="9">
         <v>204</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9"/>
-      <c r="C41" s="12" t="n">
+      <c r="G40" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="18"/>
+      <c r="C41" s="9">
         <v>1177916</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="9">
         <v>38936</v>
       </c>
-      <c r="E41" s="12" t="n">
+      <c r="E41" s="9">
         <v>4657</v>
       </c>
-      <c r="F41" s="12" t="n">
+      <c r="F41" s="9">
         <v>252</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="10" t="s">
+      <c r="G41" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="18"/>
+      <c r="C42" s="9">
+        <v>3973558</v>
+      </c>
+      <c r="D42" s="9">
+        <v>172736</v>
+      </c>
+      <c r="E42" s="9">
+        <v>123931</v>
+      </c>
+      <c r="F42" s="9">
+        <v>190</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="18"/>
+      <c r="C43" s="9">
+        <v>302788</v>
+      </c>
+      <c r="D43" s="9">
+        <v>13205</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1440</v>
+      </c>
+      <c r="F43" s="9">
+        <v>210</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="18"/>
+      <c r="C44" s="9">
+        <v>54886</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1900</v>
+      </c>
+      <c r="E44" s="9">
+        <v>326</v>
+      </c>
+      <c r="F44" s="9">
+        <v>168</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="16" t="n">
-        <f aca="false">SUM(C13:C42)</f>
-        <v>45784297</v>
-      </c>
-      <c r="D43" s="16" t="n">
-        <f aca="false">SUM(D13:D42)</f>
-        <v>1959792</v>
-      </c>
-      <c r="E43" s="16" t="n">
-        <f aca="false">SUM(E13:E42)</f>
-        <v>297433</v>
-      </c>
-      <c r="F43" s="16" t="n">
-        <f aca="false">C43/E43</f>
-        <v>153.931463556498</v>
-      </c>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="C46" s="13">
+        <f>SUM(C13:C45)</f>
+        <v>50115529</v>
+      </c>
+      <c r="D46" s="13">
+        <f>SUM(D13:D45)</f>
+        <v>2147633</v>
+      </c>
+      <c r="E46" s="13">
+        <f>SUM(E13:E45)</f>
+        <v>423130</v>
+      </c>
+      <c r="F46" s="13">
+        <f>C46/E46</f>
+        <v>118.44002788741049</v>
+      </c>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="1" t="s">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="1" t="s">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="1" t="s">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1621,15 +1932,14 @@
   <mergeCells count="3">
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="B12:B42"/>
+    <mergeCell ref="B12:B45"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/projet/Altaïr-Tests de charge.xlsx
+++ b/Docs/projet/Altaïr-Tests de charge.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t xml:space="preserve">LOGICIEL  ALTAÏR – EXTRACTION DES DONNEES DE PAYE </t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Ile-de-France (Paris)</t>
+  </si>
+  <si>
+    <t>IDF*</t>
+  </si>
+  <si>
+    <t>Ile-de-France sur PC propre</t>
   </si>
 </sst>
 </file>
@@ -419,19 +425,6 @@
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Feuille1!$C$13:$C$44</c:f>
@@ -502,7 +495,7 @@
                   <c:v>938214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10108198</c:v>
+                  <c:v>34953667</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>670046</c:v>
@@ -607,7 +600,7 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>178</c:v>
@@ -652,13 +645,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85107072"/>
-        <c:axId val="85108992"/>
+        <c:axId val="85635840"/>
+        <c:axId val="85637760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85107072"/>
+        <c:axId val="85635840"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -732,12 +728,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85108992"/>
+        <c:crossAx val="85637760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85108992"/>
+        <c:axId val="85637760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +809,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85107072"/>
+        <c:crossAx val="85635840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -868,16 +864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1125360</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>525600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:colOff>525599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1186,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1668,19 +1664,19 @@
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="9">
-        <v>10108198</v>
+        <v>34953667</v>
       </c>
       <c r="D34" s="9">
-        <v>369145</v>
+        <v>1369862</v>
       </c>
       <c r="E34" s="9">
-        <v>86582</v>
+        <v>224360</v>
       </c>
       <c r="F34" s="9">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -1877,19 +1873,19 @@
       </c>
       <c r="C46" s="13">
         <f>SUM(C13:C45)</f>
-        <v>50115529</v>
+        <v>74960998</v>
       </c>
       <c r="D46" s="13">
         <f>SUM(D13:D45)</f>
-        <v>2147633</v>
+        <v>3148350</v>
       </c>
       <c r="E46" s="13">
         <f>SUM(E13:E45)</f>
-        <v>423130</v>
+        <v>560908</v>
       </c>
       <c r="F46" s="13">
         <f>C46/E46</f>
-        <v>118.44002788741049</v>
+        <v>133.64223366398767</v>
       </c>
       <c r="G46" s="14"/>
     </row>
@@ -1926,6 +1922,14 @@
       </c>
       <c r="H51" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
